--- a/biology/Botanique/Coccothrinax/Coccothrinax.xlsx
+++ b/biology/Botanique/Coccothrinax/Coccothrinax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccothrinax est un genre d'Arecaceae (Palmiers).
 Parmi les palmiers appartenant au genre, Coccothrinax crinita, appelé « old man » en anglais, est un palmier originaire de Cuba dont le stipe est recouvert de longues fibres pâles.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stipe : Le stipe est solitaire, élancé, lisse ou couvert de la base des palmes fanées et des fibres libériennes.
 Feuilles : Feuilles palmées et rondes. Elles sont d'un vert brillant à la surface du limbe, mais plus grisées de l'autre côté.
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Coccothrinax poussent dans les forêts et les régions côtières possédant un sol calcaire, à climat subtropical ou tropical. On les retrouve dans le nord de l'Amérique du Sud, dans le sud de la Floride.
 </t>
@@ -576,11 +592,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Coryphoideae
-Tribu des Cryosophileae  [1]
+Tribu des Cryosophileae  
 Le genre partage cette tribu avec 10 autres genres qui sont :
 Schippia, Trithrinax, Sabinaria, Itaya, Chelyocarpus, Cryosophila, Thrinax, Leucothrinax, Hemithrinax et Zombia.
 </t>
@@ -611,9 +629,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1 oct. 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1 oct. 2012) :
 Coccothrinax acunana
 Coccothrinax alexandri
 Coccothrinax alta
@@ -667,11 +687,11 @@
 Coccothrinax victorini
 Coccothrinax yunquensis
 Coccothrinax yuraguana
-Selon ITIS      (1 oct. 2012)[3] :
+Selon ITIS      (1 oct. 2012) :
 Coccothrinax alta (O.F. Cook) Becc.
 Coccothrinax argentata (Jacq.) L.H. Bailey
 Coccothrinax barbadensis (Lodd. ex Mart.) Becc.
-Selon World Checklist of Selected Plant Families (WCSP)  (1 oct. 2012)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (1 oct. 2012) :
 Coccothrinax acunana León (1939)
 Coccothrinax alexandri León (1939)
 Coccothrinax alta (O.F.Cook) Becc. (1908)
@@ -725,7 +745,7 @@
 Coccothrinax victorini León (1939)
 Coccothrinax yunquensis Borhidi &amp; O.Muñiz (1981)
 Coccothrinax yuraguana (A.Rich.) León (1939)
-Selon NCBI  (1 oct. 2012)[5] :
+Selon NCBI  (1 oct. 2012) :
 Coccothrinax argentata
 Coccothrinax argentea
 Coccothrinax barbadensis
@@ -739,7 +759,7 @@
 sous-espèce Coccothrinax miraguama subsp. miraguama
 Coccothrinax salvatoris
 Coccothrinax spissa
-Selon Plants of the World online (POWO)                (17 Janvier 2022)[6] :
+Selon Plants of the World online (POWO)                (17 Janvier 2022) :
 Coccothrinax acuminata  
 Coccothrinax acunana 
 Coccothrinax alexandri  
@@ -825,7 +845,9 @@
           <t>Espèces menacées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cinq espèces de Coccothrinax sont menacées de disparition, selon la Liste rouge de l'UICN.
 Coccothrinax proctorii,  noté en voie de disparition , classé EN A3bc+4bc  en Aout 2013  (avec tendance à la baisse)
